--- a/data/trans_orig/P79A7_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79A7_2023-Clase-trans_orig.xlsx
@@ -1695,16 +1695,16 @@
         <v>9015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3981</v>
+        <v>4092</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>12094</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7454108067035703</v>
+        <v>0.7454108067035706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.329157447531311</v>
+        <v>0.3383881245791056</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1729,16 +1729,16 @@
         <v>16345</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10975</v>
+        <v>11379</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>19424</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8414826522636342</v>
+        <v>0.8414826522636345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5650314761197441</v>
+        <v>0.5858328415093143</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8113</v>
+        <v>8002</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2545891932964295</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.670842552468689</v>
+        <v>0.6616118754208946</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -1795,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8449</v>
+        <v>8045</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1585173477363657</v>
+        <v>0.1585173477363658</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4349685238802563</v>
+        <v>0.4141671584906856</v>
       </c>
     </row>
     <row r="24">
